--- a/biology/Biochimie/Neurotensine/Neurotensine.xlsx
+++ b/biology/Biochimie/Neurotensine/Neurotensine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La neurotensine est un neuropeptide de 13 acides aminés exprimée dans le tube digestif et le système nerveux central.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La neurotensine fut isolée préalablement à partir d'extraits d'hypothalamus bovin et fut caractérisée par sa capacité à provoquer une notable vasodilatation sur diverses zones cutanées de rats anesthésiés.
 </t>
@@ -543,7 +557,9 @@
           <t>Actions hormonales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est impliquée dans la régulation de la libération de l'hormone lutéinisante et de la prolactine. Elle possède de nombreuses interactions connues avec le système dopaminergique.
 </t>
@@ -574,7 +590,9 @@
           <t>Actions au niveau du tube digestif</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Au niveau périphérique, la neurotensine se trouve dans les cellules endocrines du petit intestin, où elle intervient dans les phénomènes de sécrétion et la contraction des muscles lisses.
 </t>
@@ -605,10 +623,12 @@
           <t>Actions au niveau du système nerveux</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La neurotensine se retrouve dans l'ensemble du système nerveux central avec des taux très élevés au niveau de l'hypothalamus, de l'amygdale et du noyau accumbens.
-Elle induit toute une variété d'effets : modulation de la douleur[2], hypothermie et l'élévation de l'activité locomotrice. Elle intervient aussi dans la régulation de la synthèse de dopamine.
+Elle induit toute une variété d'effets : modulation de la douleur, hypothermie et l'élévation de l'activité locomotrice. Elle intervient aussi dans la régulation de la synthèse de dopamine.
 </t>
         </is>
       </c>
